--- a/任务模型/Task模块说明.xlsx
+++ b/任务模型/Task模块说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FEIMA\组合导航\V1000_firmware_20a\任务模型\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FEIMA\组合导航\V1000_firmware\任务模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB3EEA-E08B-4FCD-AE33-4AAAB8BD3A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8684F868-3E8B-44D9-9FF0-4BD7F4A288A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task任务模块信息" sheetId="1" r:id="rId1"/>
@@ -531,9 +531,6 @@
     <t>SuspendTaskToLand (2)</t>
   </si>
   <si>
-    <t>SuspendTaskToHome (3)</t>
-  </si>
-  <si>
     <t>SuspendTaskToHomeThenLand (5)</t>
   </si>
   <si>
@@ -933,6 +930,10 @@
   </si>
   <si>
     <t>电量小于10%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuspendTaskToHomeThenLand (5)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1320,47 +1321,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1697,8 +1698,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1724,14 +1725,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
@@ -1860,14 +1861,14 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="118" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -1940,18 +1941,18 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:18" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>2</v>
@@ -2721,14 +2722,14 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:17" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2785,7 +2786,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2843,10 +2844,10 @@
       <c r="B34" s="16">
         <v>6</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2967,14 +2968,14 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2994,11 +2995,11 @@
       <c r="D42" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3016,11 +3017,11 @@
       <c r="D43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -3038,11 +3039,11 @@
       <c r="D44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -3192,133 +3193,133 @@
     </row>
     <row r="55" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="A56" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="60.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="34"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="35"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="G61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>42</v>
@@ -3337,34 +3338,34 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A64" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="A64" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="15"/>
     </row>
     <row r="66" spans="1:13" s="2" customFormat="1" ht="36.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -3378,16 +3379,16 @@
     </row>
     <row r="67" spans="1:13" s="2" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>129</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
@@ -3399,18 +3400,18 @@
       <c r="L67" s="19"/>
       <c r="M67" s="19"/>
     </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" s="2" customFormat="1" ht="36.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -3424,16 +3425,16 @@
     </row>
     <row r="69" spans="1:13" s="2" customFormat="1" ht="57.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>129</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -3445,18 +3446,18 @@
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" ht="29.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" s="2" customFormat="1" ht="36.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
@@ -3470,19 +3471,19 @@
     </row>
     <row r="71" spans="1:13" s="2" customFormat="1" ht="36.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="19" t="s">
-        <v>218</v>
-      </c>
       <c r="E71" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -3495,14 +3496,14 @@
     </row>
     <row r="72" spans="1:13" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="75" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
@@ -3522,13 +3523,13 @@
       <c r="A76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3536,41 +3537,41 @@
       <c r="A77" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="37"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="37"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="36"/>
     </row>
     <row r="79" spans="1:13" ht="18.649999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="37"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="36"/>
     </row>
     <row r="80" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="36"/>
     </row>
     <row r="81" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="38"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="37"/>
     </row>
     <row r="82" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3588,10 +3589,10 @@
       <c r="A84" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3599,22 +3600,22 @@
       <c r="A85" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
     </row>
     <row r="86" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
     </row>
     <row r="87" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
     </row>
     <row r="88" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3640,14 +3641,14 @@
     </row>
     <row r="92" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
@@ -3683,14 +3684,14 @@
     </row>
     <row r="99" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
     </row>
     <row r="101" spans="1:6" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
@@ -3699,14 +3700,14 @@
     </row>
     <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
     </row>
     <row r="104" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
@@ -3716,14 +3717,14 @@
     <row r="105" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="15" t="s">
@@ -3748,9 +3749,9 @@
       <c r="B110" s="24">
         <v>300</v>
       </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -3781,9 +3782,9 @@
       <c r="B113" s="24">
         <v>38</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
@@ -3810,239 +3811,244 @@
       <c r="B116" s="24">
         <v>189</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
     </row>
     <row r="120" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A120" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
+      <c r="A120" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:6" ht="40.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B121" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="D121" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="43.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E122" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E123" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="B76:B81"/>
@@ -4055,17 +4061,12 @@
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A100:F100"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">

--- a/任务模型/Task模块说明.xlsx
+++ b/任务模型/Task模块说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FEIMA\组合导航\V1000_firmware\任务模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8684F868-3E8B-44D9-9FF0-4BD7F4A288A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E0FE5-DF80-4972-A210-F83FB8FD79C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,47 +1321,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1394,9 +1394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>277190</xdr:colOff>
+      <xdr:colOff>275829</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>59636</xdr:rowOff>
+      <xdr:rowOff>56915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1698,8 +1698,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:F120"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1725,14 +1725,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
@@ -1861,14 +1861,14 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="118" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -1941,14 +1941,14 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:18" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21" t="s">
@@ -2722,14 +2722,14 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:17" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2844,10 +2844,10 @@
       <c r="B34" s="16">
         <v>6</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2968,14 +2968,14 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2995,11 +2995,11 @@
       <c r="D42" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3017,11 +3017,11 @@
       <c r="D43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -3039,11 +3039,11 @@
       <c r="D44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -3193,14 +3193,14 @@
     </row>
     <row r="55" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
@@ -3231,10 +3231,10 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="36" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3255,8 +3255,8 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="34"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="2" t="s">
         <v>142</v>
       </c>
@@ -3270,10 +3270,10 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3296,8 +3296,8 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="2" t="s">
         <v>142</v>
       </c>
@@ -3313,8 +3313,8 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="1" t="s">
         <v>156</v>
       </c>
@@ -3338,14 +3338,14 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="15"/>
@@ -3496,14 +3496,14 @@
     </row>
     <row r="72" spans="1:13" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="75" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
@@ -3523,13 +3523,13 @@
       <c r="A76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3537,41 +3537,41 @@
       <c r="A77" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="36"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="36"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:13" ht="18.649999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="36"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="37"/>
     </row>
     <row r="80" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="36"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="37"/>
     </row>
     <row r="81" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="37"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="38"/>
     </row>
     <row r="82" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3589,10 +3589,10 @@
       <c r="A84" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="39" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       <c r="A85" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
     </row>
     <row r="86" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
     </row>
     <row r="87" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
     </row>
     <row r="88" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3641,14 +3641,14 @@
     </row>
     <row r="92" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
@@ -3684,14 +3684,14 @@
     </row>
     <row r="99" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
@@ -3700,14 +3700,14 @@
     </row>
     <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
     </row>
     <row r="104" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
@@ -3717,14 +3717,14 @@
     <row r="105" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
     </row>
     <row r="108" spans="1:6" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="15" t="s">
@@ -3749,9 +3749,9 @@
       <c r="B110" s="24">
         <v>300</v>
       </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -3782,9 +3782,9 @@
       <c r="B113" s="24">
         <v>38</v>
       </c>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
@@ -3811,9 +3811,9 @@
       <c r="B116" s="24">
         <v>189</v>
       </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
@@ -3827,14 +3827,14 @@
       <c r="E117" s="23"/>
     </row>
     <row r="120" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
     </row>
     <row r="121" spans="1:6" ht="40.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
@@ -4038,17 +4038,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A100:F100"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="B76:B81"/>
@@ -4061,12 +4056,17 @@
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="A107:F107"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">

--- a/任务模型/Task模块说明.xlsx
+++ b/任务模型/Task模块说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FEIMA\组合导航\V1000_firmware\任务模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E0FE5-DF80-4972-A210-F83FB8FD79C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2FAF6-BE4A-4660-BED6-69885CF41088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task任务模块信息" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="238">
   <si>
     <t>可用</t>
   </si>
@@ -851,31 +851,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1）当前高度小于0.8m
-2）垂速绝对值小于0.15m持续3sec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）当前高度小于0.8m
-2）垂向加速度在0.5sec内的均值大于14m/s^2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）当前高度小于0.8m
-2）垂向加速度在两个连续周期（0.036sec）大于25m/s^2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）当前高度小于0.1m
-2）垂速小于0.2m/s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AirStandByMode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）当前航向与进入该模式时刻航向差小于20°</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -934,6 +910,88 @@
   </si>
   <si>
     <t>SuspendTaskToHomeThenLand (5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风返航保护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速大于13.8m/s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）当前高度小于0.2m
+2）垂向加速度在连续出现两个大约14m/s的值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）当前高度小于0.1m
+2）下降过程高度测量无异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）高度持续3s小于0.15m
+2）下降过程高度测量无异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）当前航向与进入该模式时刻航向差小于20（盘旋上升、盘旋下降模式不判断该条件）°</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comStatus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器系统状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大爬升速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxClimbSpeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prePathPoint_LLA</t>
+  </si>
+  <si>
+    <t>当前航点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置航点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>curPathPoint_LLA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>whereIsUAV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机位置状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeAutoMode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶层任务模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>airspeedCmd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空速指令</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1321,17 +1379,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1357,11 +1412,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1696,10 +1754,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:X139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1724,17 +1782,17 @@
     <col min="18" max="16384" width="8.640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
@@ -1786,8 +1844,29 @@
       <c r="Q2" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="28.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
@@ -1839,8 +1918,29 @@
       <c r="Q3" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1860,17 +1960,17 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:24" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="118" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1" ht="118" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
@@ -1902,7 +2002,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1940,17 +2040,17 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:24" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:18" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:24" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21" t="s">
         <v>159</v>
       </c>
@@ -2003,7 +2103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
@@ -2052,7 +2152,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" s="2" customFormat="1" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
@@ -2154,7 +2254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2205,7 +2305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
         <v>37</v>
       </c>
@@ -2722,14 +2822,14 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:17" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2844,10 +2944,10 @@
       <c r="B34" s="16">
         <v>6</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2968,14 +3068,14 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2995,11 +3095,11 @@
       <c r="D42" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3017,11 +3117,11 @@
       <c r="D43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -3039,11 +3139,11 @@
       <c r="D44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -3193,14 +3293,14 @@
     </row>
     <row r="55" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
@@ -3231,10 +3331,10 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="35" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3255,8 +3355,8 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="35"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="2" t="s">
         <v>142</v>
       </c>
@@ -3270,10 +3370,10 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="27" t="s">
         <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3296,8 +3396,8 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="2" t="s">
         <v>142</v>
       </c>
@@ -3313,8 +3413,8 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="1" t="s">
         <v>156</v>
       </c>
@@ -3338,14 +3438,14 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="15"/>
@@ -3359,13 +3459,13 @@
         <v>147</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -3385,10 +3485,10 @@
         <v>129</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
@@ -3408,10 +3508,10 @@
         <v>130</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -3431,10 +3531,10 @@
         <v>129</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -3451,13 +3551,13 @@
         <v>153</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
@@ -3477,13 +3577,13 @@
         <v>130</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -3494,16 +3594,38 @@
       <c r="L71" s="19"/>
       <c r="M71" s="19"/>
     </row>
-    <row r="72" spans="1:13" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A73" s="27" t="s">
+    <row r="72" spans="1:13" s="2" customFormat="1" ht="36.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+    </row>
+    <row r="73" spans="1:13" ht="20.6" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="75" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
@@ -3523,13 +3645,13 @@
       <c r="A76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3537,41 +3659,41 @@
       <c r="A77" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="37"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="37"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="36"/>
     </row>
     <row r="79" spans="1:13" ht="18.649999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="37"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="36"/>
     </row>
     <row r="80" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="36"/>
     </row>
     <row r="81" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="38"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="37"/>
     </row>
     <row r="82" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3589,10 +3711,10 @@
       <c r="A84" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3600,22 +3722,22 @@
       <c r="A85" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
     </row>
     <row r="86" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
     </row>
     <row r="87" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
     </row>
     <row r="88" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3641,14 +3763,14 @@
     </row>
     <row r="92" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
@@ -3684,14 +3806,14 @@
     </row>
     <row r="99" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
     </row>
     <row r="101" spans="1:6" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
@@ -3700,14 +3822,14 @@
     </row>
     <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
     </row>
     <row r="104" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
@@ -3717,14 +3839,14 @@
     <row r="105" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="15" t="s">
@@ -3749,9 +3871,9 @@
       <c r="B110" s="24">
         <v>300</v>
       </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -3782,9 +3904,9 @@
       <c r="B113" s="24">
         <v>38</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
@@ -3811,9 +3933,9 @@
       <c r="B116" s="24">
         <v>189</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
@@ -3827,14 +3949,14 @@
       <c r="E117" s="23"/>
     </row>
     <row r="120" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:6" ht="40.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
@@ -3933,7 +4055,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>188</v>
       </c>
@@ -3941,7 +4063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>190</v>
       </c>
@@ -3949,7 +4071,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>193</v>
       </c>
@@ -3957,7 +4079,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>192</v>
       </c>
@@ -3968,7 +4090,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>197</v>
       </c>
@@ -3976,7 +4098,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>198</v>
       </c>
@@ -3987,7 +4109,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>200</v>
       </c>
@@ -3995,55 +4117,57 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E136" s="1" t="s">
+    </row>
+    <row r="139" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="B76:B81"/>
@@ -4056,17 +4180,12 @@
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A100:F100"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
@@ -4085,7 +4204,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P26" xr:uid="{3A2DB028-1E6F-4211-AE51-117D6BEEEC72}">
       <formula1>"NoneFlightControlMode,SpotHoverMode,HeightKeepMode,AttitudeKeepMode,HeadingKeepMode,PathFollowControlMode,CircleHoverMode,Move3dMode,GroundStandByControlMode,DoNothinig,OnlyStablizePitchAndRoll"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A59 A61 B66:B71" xr:uid="{B09E86EB-FB2F-48C5-823A-6B2674196858}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A59 A61 B66:B72" xr:uid="{B09E86EB-FB2F-48C5-823A-6B2674196858}">
       <formula1>"        NotAutoMode (0),         AutoProfile (1),         SuspendTaskToLand (2),         SuspendTaskToHome (3),         ManualToAuto (4),         SuspendTaskToHomeThenLand (5)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/任务模型/Task模块说明.xlsx
+++ b/任务模型/Task模块说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FEIMA\组合导航\V1000_firmware\任务模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2FAF6-BE4A-4660-BED6-69885CF41088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9194190-33F2-479F-9B5F-B21EFB9B0C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="254">
   <si>
     <t>可用</t>
   </si>
@@ -877,18 +877,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>home为圆心10km半径内</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器断开，或地面站断开，阈值时间由管家设定</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>空速小于8m/s，且地速小于5m/s，持续2sec以上</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>地面站可调</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -898,10 +890,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ublox星数小于13或pDop大于5，（磁力计、高度计等传感器失效不是很影响飞行，暂不触发立即降落保护）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -992,6 +980,82 @@
   </si>
   <si>
     <t>空速指令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失速保护模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空速小于8持续2sec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式中的操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 俯仰滚转稳定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯仰滚转小于15°持续2sec后进入下一阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 高度稳定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取1)阶段结束时的高度作为目标高度，无条件持续5sec后进入下一阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 三轴姿态位置保持（无航向）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与定点悬停模式相同，无条件持续5sec后退出失速保护模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋翼GoHome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>home为圆心20km半径内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ublox星数小于7或pDop大于10，（磁力计、高度计等传感器失效不是很影响飞行，暂不触发立即降落保护）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空速小于8m/s，持续2sec以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flightControlMode = ENUM_FlightControlMode.RotorStable_RollPitchHeight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中判断子阶段的标志</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flightControlMode = ENUM_FlightControlMode.OnlyStablizePitchAndRoll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flightControlMode = ENUM_FlightControlMode.SpotHoverMode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -999,7 +1063,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1178,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1299,7 +1372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1379,46 +1452,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1754,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X139"/>
+  <dimension ref="A1:X148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1783,14 +1868,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="58.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
@@ -1845,25 +1930,25 @@
         <v>67</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="W2" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="28.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1919,25 +2004,25 @@
         <v>16</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="T3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="X3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1961,14 +2046,14 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:24" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="118" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -2041,14 +2126,14 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:24" ht="18.45" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21" t="s">
@@ -2822,14 +2907,14 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:17" ht="20.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2944,10 +3029,10 @@
       <c r="B34" s="16">
         <v>6</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -3068,14 +3153,14 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -3095,11 +3180,11 @@
       <c r="D42" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3117,11 +3202,11 @@
       <c r="D43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -3139,11 +3224,11 @@
       <c r="D44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -3293,14 +3378,14 @@
     </row>
     <row r="55" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
@@ -3331,10 +3416,10 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="37" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3355,8 +3440,8 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="34"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="2" t="s">
         <v>142</v>
       </c>
@@ -3370,10 +3455,10 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="40" t="s">
         <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3396,8 +3481,8 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="2" t="s">
         <v>142</v>
       </c>
@@ -3413,8 +3498,8 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="1" t="s">
         <v>156</v>
       </c>
@@ -3438,14 +3523,14 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="15"/>
@@ -3459,13 +3544,13 @@
         <v>147</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>208</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -3485,10 +3570,10 @@
         <v>129</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
@@ -3508,10 +3593,10 @@
         <v>130</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -3531,10 +3616,10 @@
         <v>129</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -3551,13 +3636,13 @@
         <v>153</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C70" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>212</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
@@ -3577,13 +3662,13 @@
         <v>130</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="D71" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -3596,13 +3681,13 @@
     </row>
     <row r="72" spans="1:13" s="2" customFormat="1" ht="36.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
@@ -3618,14 +3703,14 @@
       <c r="M72" s="19"/>
     </row>
     <row r="73" spans="1:13" ht="20.6" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
     </row>
     <row r="75" spans="1:13" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
@@ -3645,13 +3730,13 @@
       <c r="A76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="37" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3659,41 +3744,41 @@
       <c r="A77" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="36"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="38"/>
     </row>
     <row r="78" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="36"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="38"/>
     </row>
     <row r="79" spans="1:13" ht="18.649999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="36"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="38"/>
     </row>
     <row r="80" spans="1:13" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="36"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="38"/>
     </row>
     <row r="81" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="37"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="39"/>
     </row>
     <row r="82" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3711,10 +3796,10 @@
       <c r="A84" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="40" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3722,22 +3807,22 @@
       <c r="A85" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
     </row>
     <row r="86" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
     </row>
     <row r="87" spans="1:6" ht="18.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
     </row>
     <row r="88" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -3763,14 +3848,14 @@
     </row>
     <row r="92" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
     </row>
     <row r="95" spans="1:6" ht="16.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
@@ -3806,14 +3891,14 @@
     </row>
     <row r="99" spans="1:6" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
     </row>
     <row r="101" spans="1:6" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
@@ -3822,14 +3907,14 @@
     </row>
     <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
     </row>
     <row r="104" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
@@ -3839,14 +3924,14 @@
     <row r="105" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
     </row>
     <row r="108" spans="1:6" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="15" t="s">
@@ -3871,9 +3956,9 @@
       <c r="B110" s="24">
         <v>300</v>
       </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -3904,27 +3989,21 @@
       <c r="B113" s="24">
         <v>38</v>
       </c>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B114" s="24"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B115" s="24"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
@@ -3933,9 +4012,6 @@
       <c r="B116" s="24">
         <v>189</v>
       </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
@@ -3944,230 +4020,291 @@
       <c r="B117" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-    </row>
-    <row r="120" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A120" s="29" t="s">
+    </row>
+    <row r="122" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A122" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-    </row>
-    <row r="121" spans="1:6" ht="40.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="15" t="s">
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+    </row>
+    <row r="123" spans="1:6" ht="40.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B123" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C123" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D123" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="43.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="124" spans="1:6" ht="43.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E122" s="25" t="s">
+      <c r="E124" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+    <row r="125" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E123" s="25" t="s">
+      <c r="E125" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+    <row r="126" spans="1:6" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="127" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
+    <row r="134" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
+    <row r="136" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
+    <row r="137" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
+    <row r="138" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B138" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
+    <row r="141" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>207</v>
       </c>
     </row>
+    <row r="144" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A144" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+    </row>
+    <row r="145" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B145" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C145" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D145" s="44"/>
+      <c r="E145" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F145" s="43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="44.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A146" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="57" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="C148" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A5:F5"/>
+  <mergeCells count="30">
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A100:F100"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="B76:B81"/>
@@ -4180,12 +4317,18 @@
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="C145:D145"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
